--- a/artGallerySchema.xlsx
+++ b/artGallerySchema.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvale\Documents\CS340\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,17 +483,23 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,12 +507,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -520,12 +526,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -539,12 +545,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -555,32 +561,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -588,12 +594,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -601,12 +607,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -614,12 +620,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -630,12 +636,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -643,12 +649,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -656,12 +662,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>

--- a/artGallerySchema.xlsx
+++ b/artGallerySchema.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Gallery</t>
   </si>
@@ -81,15 +81,6 @@
   </si>
   <si>
     <t>lastName</t>
-  </si>
-  <si>
-    <t>Floor</t>
-  </si>
-  <si>
-    <t>floorName</t>
-  </si>
-  <si>
-    <t>Has</t>
   </si>
   <si>
     <t>Contains</t>
@@ -480,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A20" sqref="A16:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,111 +562,88 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C33" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
